--- a/inst/biocheck_notes_20210405.xlsx
+++ b/inst/biocheck_notes_20210405.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernandaveitzman/Documents/GitHub/coMethDMR/inst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B02BFC4-D91C-734F-93AF-15F114078B18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03636155-F1DD-E94F-9A14-A27139F7DFD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3260" windowWidth="27240" windowHeight="16440" xr2:uid="{87997EA8-9C24-A441-B24F-9A8F859CDD81}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t xml:space="preserve">Type </t>
   </si>
@@ -85,13 +85,50 @@
   </si>
   <si>
     <t> "Cannot determine whether maintainer is subscribed to the bioc-devel mailing list\n(requires admin credentials).  Subscribe here:\nhttps://stat.ethz.ch/mailman/listinfo/bioc-devel"</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Depends: R(&gt;=4.0.)</t>
+  </si>
+  <si>
+    <t>Depends: R(&gt;=3.5.0)</t>
+  </si>
+  <si>
+    <t>Disregard</t>
+  </si>
+  <si>
+    <t>Found sapply(), inserted notes and commited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version:  0.0.0.9001
+Solution: Released packages don’t have a dev component, so now I need to drop that and pick a version number based on the changes we’ve made. 
+	Increment patch:  0.0.1 for a patch: you’ve fixed bugs without adding any significant new features. 
+	Increment minor,  0.1.0, for a minor release. A minor release can include bug fixes, new features and changes in backward compatibility. 
+	Increment major, 1.0.0, for a major release. This is best reserved for changes that are not backward compatible and that are likely to affect many users. </t>
+  </si>
+  <si>
+    <t>Added NEWS file and asked Thiago ref changes</t>
+  </si>
+  <si>
+    <t>Found dontrun(), inserted notes and commited</t>
+  </si>
+  <si>
+    <t>WriteCloseByAllRegions.R</t>
+  </si>
+  <si>
+    <t>CoMethAllRegions.R    CreateRdrop.R</t>
+  </si>
+  <si>
+    <t>I am already subscribed to this mailing list.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +148,18 @@
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -135,10 +184,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -454,18 +510,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FFF4F10-54EB-3A46-BD58-183D1ACD8DF3}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="152" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,24 +533,36 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -500,68 +570,101 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
